--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/房地产业、租赁和商务服务业.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/房地产业、租赁和商务服务业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,551 +558,237 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4379127.5</v>
+        <v>23693921.1247191</v>
       </c>
       <c r="C2" t="n">
-        <v>1080624.31</v>
+        <v>11518768.6355968</v>
       </c>
       <c r="D2" t="n">
-        <v>546504.39</v>
+        <v>536094.565400009</v>
       </c>
       <c r="E2" t="n">
-        <v>3325262</v>
+        <v>12787955.2624</v>
       </c>
       <c r="F2" t="n">
-        <v>3887340</v>
+        <v>6053681.64586949</v>
       </c>
       <c r="G2" t="n">
-        <v>59819524.03</v>
+        <v>213277387.122832</v>
       </c>
       <c r="H2" t="n">
-        <v>23663282.3399457</v>
+        <v>66240170.8964877</v>
       </c>
       <c r="I2" t="n">
-        <v>16125730.8148868</v>
+        <v>130006457.753542</v>
       </c>
       <c r="J2" t="n">
-        <v>50607849.0828524</v>
+        <v>305670351.757218</v>
       </c>
       <c r="K2" t="n">
-        <v>110427373.112852</v>
+        <v>518947738.88005</v>
       </c>
       <c r="L2" t="n">
-        <v>8649647</v>
+        <v>27269529.7748284</v>
       </c>
       <c r="M2" t="n">
-        <v>4716820.10477757</v>
+        <v>46369706.5337198</v>
       </c>
       <c r="N2" t="n">
-        <v>6102015.82324228</v>
+        <v>63054016.5734685</v>
       </c>
       <c r="O2" t="n">
-        <v>4252891</v>
+        <v>25454287.8980704</v>
       </c>
       <c r="P2" t="n">
-        <v>11008762.6</v>
+        <v>34205207.1808158</v>
       </c>
       <c r="Q2" t="n">
-        <v>3557676.1</v>
+        <v>10825509.2329461</v>
       </c>
       <c r="R2" t="n">
-        <v>1518666</v>
+        <v>4308057.27920428</v>
       </c>
       <c r="S2" t="n">
-        <v>2058056.8</v>
+        <v>7178144.06522843</v>
       </c>
       <c r="T2" t="n">
-        <v>6130059</v>
+        <v>16088705.310047</v>
       </c>
       <c r="U2" t="n">
-        <v>469502.8</v>
+        <v>368145.251291167</v>
       </c>
       <c r="V2" t="n">
-        <v>734754.2</v>
+        <v>6605008.96255939</v>
       </c>
       <c r="W2" t="n">
-        <v>4615162</v>
+        <v>22778299.3292869</v>
       </c>
       <c r="X2" t="n">
-        <v>1488516</v>
+        <v>204278.291602577</v>
       </c>
       <c r="Y2" t="n">
-        <v>2116972.33</v>
+        <v>3401793.31296595</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1607616.44195349</v>
+        <v>36085258.8641023</v>
       </c>
       <c r="C3" t="n">
-        <v>1212033.00061618</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>9791281.724599401</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2512712.06965848</v>
+      </c>
       <c r="E3" t="n">
-        <v>333340.679254713</v>
+        <v>7483377.74777499</v>
       </c>
       <c r="F3" t="n">
-        <v>1115036.54284455</v>
+        <v>10781931.8046778</v>
       </c>
       <c r="G3" t="n">
-        <v>26375146.7504797</v>
+        <v>338499486.999939</v>
       </c>
       <c r="H3" t="n">
-        <v>13759178.8697344</v>
+        <v>94050930.36531331</v>
       </c>
       <c r="I3" t="n">
-        <v>5736724.6414466</v>
+        <v>180622637.561796</v>
       </c>
       <c r="J3" t="n">
-        <v>46764168.7497237</v>
+        <v>424637803.618165</v>
       </c>
       <c r="K3" t="n">
-        <v>73139315.5002034</v>
+        <v>763137290.618104</v>
       </c>
       <c r="L3" t="n">
-        <v>7965245.56843815</v>
+        <v>52871746.6737161</v>
       </c>
       <c r="M3" t="n">
-        <v>1143904.81538268</v>
+        <v>66159620.3582318</v>
       </c>
       <c r="N3" t="n">
-        <v>26124360.42316</v>
+        <v>83804615.3328236</v>
       </c>
       <c r="O3" t="n">
-        <v>2836346.568717</v>
+        <v>32181004.3903559</v>
       </c>
       <c r="P3" t="n">
-        <v>2651480.62133957</v>
+        <v>47422879.7898144</v>
       </c>
       <c r="Q3" t="n">
-        <v>262271.374197618</v>
+        <v>21988118.7236205</v>
       </c>
       <c r="R3" t="n">
-        <v>798105.212965149</v>
+        <v>3056586.58079013</v>
       </c>
       <c r="S3" t="n">
-        <v>272665.670894509</v>
+        <v>5798573.65367209</v>
       </c>
       <c r="T3" t="n">
-        <v>2066993.45107027</v>
+        <v>23647565.729207</v>
       </c>
       <c r="U3" t="n">
-        <v>26722.2082886305</v>
+        <v>39814.6964444525</v>
       </c>
       <c r="V3" t="n">
-        <v>146753.696942396</v>
+        <v>10572973.7017866</v>
       </c>
       <c r="W3" t="n">
-        <v>4985406.10112394</v>
+        <v>67498057.1566246</v>
       </c>
       <c r="X3" t="n">
-        <v>85176.90683720809</v>
+        <v>226215.858626693</v>
       </c>
       <c r="Y3" t="n">
-        <v>9952.70499633548</v>
+        <v>6541387.83446782</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9588632.6938833</v>
+        <v>63128570.5596136</v>
       </c>
       <c r="C4" t="n">
-        <v>3611556.42138826</v>
+        <v>23641416.7026495</v>
       </c>
       <c r="D4" t="n">
-        <v>280005.216546239</v>
+        <v>5498382.5007569</v>
       </c>
       <c r="E4" t="n">
-        <v>765158.6603768721</v>
+        <v>11841888.4031381</v>
       </c>
       <c r="F4" t="n">
-        <v>4661908.6851671</v>
+        <v>14575252.2968311</v>
       </c>
       <c r="G4" t="n">
-        <v>93846013.0669883</v>
+        <v>597358019.118908</v>
       </c>
       <c r="H4" t="n">
-        <v>20579031.407869</v>
+        <v>156510192.793363</v>
       </c>
       <c r="I4" t="n">
-        <v>54908145.2942967</v>
+        <v>237360633.820379</v>
       </c>
       <c r="J4" t="n">
-        <v>111919561.041732</v>
+        <v>587838202.9767981</v>
       </c>
       <c r="K4" t="n">
-        <v>205765574.10872</v>
+        <v>1185196222.09571</v>
       </c>
       <c r="L4" t="n">
-        <v>11340406.7728827</v>
+        <v>109441393.725317</v>
       </c>
       <c r="M4" t="n">
-        <v>13374885.4129502</v>
+        <v>85566830.24743851</v>
       </c>
       <c r="N4" t="n">
-        <v>23057498.9266161</v>
+        <v>108400546.115617</v>
       </c>
       <c r="O4" t="n">
-        <v>10354631.8678848</v>
+        <v>62650017.0461363</v>
       </c>
       <c r="P4" t="n">
-        <v>29214569.5927276</v>
+        <v>82905436.8307448</v>
       </c>
       <c r="Q4" t="n">
-        <v>1117433.39482017</v>
+        <v>24799893.6106161</v>
       </c>
       <c r="R4" t="n">
-        <v>1952876.7393611</v>
+        <v>3650536.79656378</v>
       </c>
       <c r="S4" t="n">
-        <v>587781.115128046</v>
+        <v>12264262.6452468</v>
       </c>
       <c r="T4" t="n">
-        <v>8696952.53778911</v>
+        <v>46970910.9858043</v>
       </c>
       <c r="U4" t="n">
-        <v>598427.832605773</v>
+        <v>38524.2146670494</v>
       </c>
       <c r="V4" t="n">
-        <v>2837267.26458375</v>
+        <v>17264355.662949</v>
       </c>
       <c r="W4" t="n">
-        <v>6642948.39802711</v>
+        <v>103964353.02037</v>
       </c>
       <c r="X4" t="n">
-        <v>1115586.02348899</v>
+        <v>373983.076521395</v>
       </c>
       <c r="Y4" t="n">
-        <v>479869.850327475</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11813559.6926652</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5536613.13254085</v>
-      </c>
-      <c r="D5" t="n">
-        <v>208019.525149101</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5516076.54220232</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1889590.72334782</v>
-      </c>
-      <c r="G5" t="n">
-        <v>104324862.136754</v>
-      </c>
-      <c r="H5" t="n">
-        <v>26565094.0471845</v>
-      </c>
-      <c r="I5" t="n">
-        <v>72454981.1247291</v>
-      </c>
-      <c r="J5" t="n">
-        <v>161267179.510796</v>
-      </c>
-      <c r="K5" t="n">
-        <v>265592041.64755</v>
-      </c>
-      <c r="L5" t="n">
-        <v>10881332.4983793</v>
-      </c>
-      <c r="M5" t="n">
-        <v>22886202.0484642</v>
-      </c>
-      <c r="N5" t="n">
-        <v>39360902.290418</v>
-      </c>
-      <c r="O5" t="n">
-        <v>12099466.1101706</v>
-      </c>
-      <c r="P5" t="n">
-        <v>25829238.3730682</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4882845.07047647</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1743890.84262499</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3274690.23638363</v>
-      </c>
-      <c r="T5" t="n">
-        <v>6543370.71580652</v>
-      </c>
-      <c r="U5" t="n">
-        <v>136178.361895422</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3987539.25212619</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8382974.28625258</v>
-      </c>
-      <c r="X5" t="n">
-        <v>81293.8360511706</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1518182.93761359</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>23693921.1247191</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11518768.6355968</v>
-      </c>
-      <c r="D6" t="n">
-        <v>536094.565400009</v>
-      </c>
-      <c r="E6" t="n">
-        <v>12787955.2624</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6053681.64586949</v>
-      </c>
-      <c r="G6" t="n">
-        <v>213277387.122832</v>
-      </c>
-      <c r="H6" t="n">
-        <v>66240170.8964877</v>
-      </c>
-      <c r="I6" t="n">
-        <v>130006457.753542</v>
-      </c>
-      <c r="J6" t="n">
-        <v>305670351.757218</v>
-      </c>
-      <c r="K6" t="n">
-        <v>518947738.88005</v>
-      </c>
-      <c r="L6" t="n">
-        <v>27269529.7748284</v>
-      </c>
-      <c r="M6" t="n">
-        <v>46369706.5337198</v>
-      </c>
-      <c r="N6" t="n">
-        <v>63054016.5734685</v>
-      </c>
-      <c r="O6" t="n">
-        <v>25454287.8980704</v>
-      </c>
-      <c r="P6" t="n">
-        <v>34205207.1808158</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>10825509.2329461</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4308057.27920428</v>
-      </c>
-      <c r="S6" t="n">
-        <v>7178144.06522843</v>
-      </c>
-      <c r="T6" t="n">
-        <v>16088705.310047</v>
-      </c>
-      <c r="U6" t="n">
-        <v>368145.251291167</v>
-      </c>
-      <c r="V6" t="n">
-        <v>6605008.96255939</v>
-      </c>
-      <c r="W6" t="n">
-        <v>22778299.3292869</v>
-      </c>
-      <c r="X6" t="n">
-        <v>204278.291602577</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>3401793.31296595</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>36085258.8641023</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9791281.724599401</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2512712.06965848</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7483377.74777499</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10781931.8046778</v>
-      </c>
-      <c r="G7" t="n">
-        <v>338499486.999939</v>
-      </c>
-      <c r="H7" t="n">
-        <v>94050930.36531331</v>
-      </c>
-      <c r="I7" t="n">
-        <v>180622637.561796</v>
-      </c>
-      <c r="J7" t="n">
-        <v>424637803.618165</v>
-      </c>
-      <c r="K7" t="n">
-        <v>763137290.618104</v>
-      </c>
-      <c r="L7" t="n">
-        <v>52871746.6737161</v>
-      </c>
-      <c r="M7" t="n">
-        <v>66159620.3582318</v>
-      </c>
-      <c r="N7" t="n">
-        <v>83804615.3328236</v>
-      </c>
-      <c r="O7" t="n">
-        <v>32181004.3903559</v>
-      </c>
-      <c r="P7" t="n">
-        <v>47422879.7898144</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>21988118.7236205</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3056586.58079013</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5798573.65367209</v>
-      </c>
-      <c r="T7" t="n">
-        <v>23647565.729207</v>
-      </c>
-      <c r="U7" t="n">
-        <v>39814.6964444525</v>
-      </c>
-      <c r="V7" t="n">
-        <v>10572973.7017866</v>
-      </c>
-      <c r="W7" t="n">
-        <v>67498057.1566246</v>
-      </c>
-      <c r="X7" t="n">
-        <v>226215.858626693</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>6541387.83446782</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>63128570.5596136</v>
-      </c>
-      <c r="C8" t="n">
-        <v>23641416.7026495</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5498382.5007569</v>
-      </c>
-      <c r="E8" t="n">
-        <v>11841888.4031381</v>
-      </c>
-      <c r="F8" t="n">
-        <v>14575252.2968311</v>
-      </c>
-      <c r="G8" t="n">
-        <v>597358019.118908</v>
-      </c>
-      <c r="H8" t="n">
-        <v>156510192.793363</v>
-      </c>
-      <c r="I8" t="n">
-        <v>237360633.820379</v>
-      </c>
-      <c r="J8" t="n">
-        <v>587838202.9767981</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1185196222.09571</v>
-      </c>
-      <c r="L8" t="n">
-        <v>109441393.725317</v>
-      </c>
-      <c r="M8" t="n">
-        <v>85566830.24743851</v>
-      </c>
-      <c r="N8" t="n">
-        <v>108400546.115617</v>
-      </c>
-      <c r="O8" t="n">
-        <v>62650017.0461363</v>
-      </c>
-      <c r="P8" t="n">
-        <v>82905436.8307448</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>24799893.6106161</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3650536.79656378</v>
-      </c>
-      <c r="S8" t="n">
-        <v>12264262.6452468</v>
-      </c>
-      <c r="T8" t="n">
-        <v>46970910.9858043</v>
-      </c>
-      <c r="U8" t="n">
-        <v>38524.2146670494</v>
-      </c>
-      <c r="V8" t="n">
-        <v>17264355.662949</v>
-      </c>
-      <c r="W8" t="n">
-        <v>103964353.02037</v>
-      </c>
-      <c r="X8" t="n">
-        <v>373983.076521395</v>
-      </c>
-      <c r="Y8" t="n">
         <v>14348841.0409823</v>
       </c>
     </row>
